--- a/doc/RSA加密解密交互流程.xlsx
+++ b/doc/RSA加密解密交互流程.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17940"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RSA基础知识" sheetId="1" r:id="rId1"/>
@@ -20,17 +15,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
-    <t>加密请求示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>请求方式</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>G</t>
     </r>
     <r>
@@ -38,114 +35,28 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ET</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ELETE</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UT</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>参考P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OST</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.cpic.com/saveUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>不加密请求示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不加密请求示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.cpic.com/getUserInfoById?id=123&amp;pid=11或https://www.cpic.com/getUserInfoById/{id}/{pid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.cpic.com/getUserInfoById?id=123&amp;pid=11或https://www.cpic.com/getUserInfoById/{id}/{pid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>说明</t>
   </si>
   <si>
     <t>header组成：
 1、isAuth：0（不加密）；1（加密）
 2、token（基本除登录外都需要）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>body参数为：
-{
-    'username':'aaaaaa',
-    'password':Base64('abc123'),
-    'address':'cccccc'
-}
-header组成：
-1、isAuth：0（不加密）；1（加密）
-2、token（基本除登录外都需要）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>加密请求示例</t>
   </si>
   <si>
     <t>header组成：
@@ -159,10 +70,58 @@
 2、原则上若请求中带有中文则作为POST传参；
 3、所有header参数的key和value都是字符串类型
 4、后端就是反向校验操作：先是用后端私钥解密sign，然后用解密后的sign和MD5(currentTime+","+nonce)比较是否一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ELETE</t>
+    </r>
+  </si>
+  <si>
+    <t>参考GET</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>https://www.cpic.com/saveUser</t>
+  </si>
+  <si>
+    <t>body参数为：
+{
+    'username':'aaaaaa',
+    'password':Base64('abc123'),
+    'address':'cccccc'
+}
+header组成：
+1、isAuth：0（不加密）；1（加密）
+2、token（基本除登录外都需要）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">请求参数记为A：
 {
     'username':'zhangsan',
@@ -192,7 +151,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -209,24 +167,68 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>5、后端就是反向校验操作：先是3DES解密code，然后用前端公钥验签</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.cpic.com/saveUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参考P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OST</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,7 +237,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -244,8 +247,144 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,27 +392,211 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -359,15 +682,260 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,31 +943,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -409,24 +971,68 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -440,7 +1046,7 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>161290</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="文本框 19"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -655,6 +1261,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>步骤：</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -674,6 +1281,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>请求后端进行登录操作：</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -697,6 +1305,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>），加密后字符串为：</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -704,6 +1313,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>gk/LDvk9B1wwkU3+PiIs2a10RB0HnCWzxxSfQXu4mQE5UAfisboEM/W1R1CiFqO+XFCcMuWeV2lyr+u5/NM7UOJCJG686Ol4aXi4QvP5WOpV7aGz7YNjIoiEzBOIk5wBBWbxBrOl77/wa2s6EqFo5hTNVnt7PjeXbU/v+zbo46A=</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -749,6 +1359,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>）</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -772,6 +1383,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>，生成的结果为：</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -779,6 +1391,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>bNNRXZokBu0kfF7qEIx9p5myw4InBhowCafpuIKO1eBQ/sqkLFmVSGg6x1n4bIE048GRreZFytDRMlSQhxI54ZMMlxSvVCpoS/h8GrhyamzgHs35Z7T4ddVQM+cEkapVXK6+Ems7tdu1Fef3Zuv1PLsqc2xpmTpAWY8t5ODgZnE=</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -794,6 +1407,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>体为：</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -801,6 +1415,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>{</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -808,6 +1423,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>    'username':'zhangsan',</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -825,6 +1441,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>',</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -842,6 +1459,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>',</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -859,6 +1477,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>'</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -866,6 +1485,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>}</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -896,6 +1516,15 @@
             </a:rPr>
             <a:t>{</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -934,6 +1563,15 @@
             </a:rPr>
             <a:t>({</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -965,6 +1603,15 @@
             </a:rPr>
             <a:t>        'password':Base64('abc123'),</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -995,6 +1642,15 @@
             </a:rPr>
             <a:t>        'time':'20200302112233',</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1025,6 +1681,15 @@
             </a:rPr>
             <a:t>        'random':'aaa1111'</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -1039,6 +1704,15 @@
             </a:rPr>
             <a:t>    }),</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1093,56 +1767,6 @@
             </a:rPr>
             <a:t>(MD5(time+random))</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    //'token':'aaaaaaa1111111'//</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>登录时传空即可，加在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>header</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>里</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -1164,8 +1788,76 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>    //'token':'aaaaaaa1111111'//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>登录时传空即可，加在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>header</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>里</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>}</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -1192,6 +1884,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>、后端验签并解密</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1223,6 +1916,9 @@
             </a:rPr>
             <a:t>进行验签，验签通过，同时比较时间戳是否失效</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1242,6 +1938,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>abc123</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1265,6 +1962,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>校验用户名和密码是否正确</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1276,6 +1974,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>token</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1347,6 +2046,9 @@
             </a:rPr>
             <a:t>用于前端验签</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1356,6 +2058,9 @@
             </a:rPr>
             <a:t>问答：</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1371,6 +2076,9 @@
             </a:rPr>
             <a:t>、是如何做到防止信息泄露？答：通过对关键数据的加密；</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1386,6 +2094,9 @@
             </a:rPr>
             <a:t>、是如何防止信息篡改的？答：通过签名，签名需要私钥，如果私钥泄露，那么就会被信息篡改，所以私钥的保密性很重要，如有必要定期更换；</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1437,6 +2148,9 @@
             </a:rPr>
             <a:t>分钟的时间段内，则提示请求超时；</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1488,6 +2202,9 @@
             </a:rPr>
             <a:t>点私钥泄露问题上来了；</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1515,6 +2232,9 @@
             </a:rPr>
             <a:t>分钟之内，但是也不排除客户故意修改本地时间影响客户端读取到正确时间，那么可以前端用户一打开应用先同步下后端时间。</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1524,6 +2244,9 @@
             </a:rPr>
             <a:t>注：</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1533,6 +2256,9 @@
             </a:rPr>
             <a:t>1、后端持有后端的公钥和私钥还有前端的公钥；前端持有前端的公钥和私钥还有后端的公钥；</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1644,7 +2370,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1679,7 +2405,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1882,163 +2608,166 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="107.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="172.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:4">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="148.5" spans="1:4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7"/>
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>10</v>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="7" ht="121.5" spans="1:4">
+      <c r="A7" s="7"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
+    <row r="8" ht="16.5" customHeight="1" spans="1:4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="4" t="s">
-        <v>0</v>
+    <row r="9" ht="409.5" customHeight="1" spans="1:4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A1:A10"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B1:B4"/>
     <mergeCell ref="B6:B9"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://www.cpic.com/getUserInfoById?data=后端公钥加密的字符串&amp;sign=前端私钥加密的签名或"/>
-    <hyperlink ref="D1" r:id="rId2" display="https://www.cpic.com/getUserInfoById?id=123&amp;pid=11"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="D8" r:id="rId4"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://www.cpic.com/getUserInfoById?id=123&amp;pid=11或https://www.cpic.com/getUserInfoById/{id}/{pid}"/>
+    <hyperlink ref="D1" r:id="rId2" display="https://www.cpic.com/getUserInfoById?id=123&amp;pid=11或https://www.cpic.com/getUserInfoById/{id}/{pid}"/>
+    <hyperlink ref="D6" r:id="rId3" display="https://www.cpic.com/saveUser"/>
+    <hyperlink ref="D8" r:id="rId3" display="https://www.cpic.com/saveUser"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>